--- a/MSO5000 LCR/Data/Clean_Test.xlsx
+++ b/MSO5000 LCR/Data/Clean_Test.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>H_[]</t>
+          <t>H_[1]</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
